--- a/medicine/Sexualité et sexologie/Dicklit/Dicklit.xlsx
+++ b/medicine/Sexualité et sexologie/Dicklit/Dicklit.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le dicklit (aussi appelé « phalloris ») est un organe génital de certaines personnes transgenres[1] FtM ou FtX, ainsi que de certaines personnes intersexes. Il résulte d'une succession de transformations corporelles naturelles ou bien choisies. Dans le cadre d'une transition de genre, le dicklit se développe suite à la prise de testostérone[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le dicklit (aussi appelé « phalloris ») est un organe génital de certaines personnes transgenres FtM ou FtX, ainsi que de certaines personnes intersexes. Il résulte d'une succession de transformations corporelles naturelles ou bien choisies. Dans le cadre d'une transition de genre, le dicklit se développe suite à la prise de testostérone.
 Il se situe dans le haut de la vulve. Le capuchon du clitoris, qui est toujours présent, l'enveloppe partiellement.
 Chez les personnes intersexes, il est présent à la naissance et généralement désigné comme un micropénis.
 </t>
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme dicklit date de la fin du XXème siècle. C'est un mot-valise du mot anglais « dick » (pénis dans un registre familier) et de « clit » pour clitoris[3]. Il signifie littéralement : pénis-clitoris.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme dicklit date de la fin du XXème siècle. C'est un mot-valise du mot anglais « dick » (pénis dans un registre familier) et de « clit » pour clitoris. Il signifie littéralement : pénis-clitoris.
 Le terme phalloris est un néologisme créé à partir du préfixe « phallo » (du grec phallós qui a donné phallus) qui désigne le pénis, et du suffixe « ris »  qui fait référence au clitoris. La création de ce mot valise répond au besoin de s'écarter du caractère pornographique et fétichisant auquel peut être relié le nom anglais « dick ».
 </t>
         </is>
@@ -545,9 +559,11 @@
           <t>Aspect</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le dicklit ressemble à un gros clitoris ou à un pénis de petite taille. Comme pour un pénis, on trouve à la jonction entre le gland et le corps du dicklit une couronne de chair plus large[4], ce qui laisse à penser que celle-ci existe sur le clitoris, mais sous une forme non visible.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le dicklit ressemble à un gros clitoris ou à un pénis de petite taille. Comme pour un pénis, on trouve à la jonction entre le gland et le corps du dicklit une couronne de chair plus large, ce qui laisse à penser que celle-ci existe sur le clitoris, mais sous une forme non visible.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Croissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La croissance du dicklit est l'un des premiers effets d'une transition hormonale masculinisante, elle intervient dès les premiers jours à premiers mois du traitement[4]. Il s'agit d'un effet non réversible[5] de la prise de testostérone : en cas d'arrêt du traitement, le dicklit gardera la même forme et taille[4]. La partie externe du dicklit peut grandir de quelques millimètres et atteindre 5 à 6 centimètres tout au plus.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La croissance du dicklit est l'un des premiers effets d'une transition hormonale masculinisante, elle intervient dès les premiers jours à premiers mois du traitement. Il s'agit d'un effet non réversible de la prise de testostérone : en cas d'arrêt du traitement, le dicklit gardera la même forme et taille. La partie externe du dicklit peut grandir de quelques millimètres et atteindre 5 à 6 centimètres tout au plus.
 </t>
         </is>
       </c>
@@ -607,9 +625,11 @@
           <t>Hygiène</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme pour le pénis et le clitoris, le capuchon produit du smegma[4], ce qui nécessite un nettoyage aux doigts ou au gant de toilette lors du bain ou de la douche.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme pour le pénis et le clitoris, le capuchon produit du smegma, ce qui nécessite un nettoyage aux doigts ou au gant de toilette lors du bain ou de la douche.
 </t>
         </is>
       </c>
@@ -638,7 +658,9 @@
           <t>Pratiques sexuelles</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le dicklit garde à peu près la sensibilité d'un clitoris. Il est donc possible de le masturber ou de pratiquer dessus l'équivalent d'un cunnilingus.
 La protection contre les IST passe par les mêmes moyens que pour un cunnilingus, à savoir l'utilisation d'une digue dentaire ou d'un préservatif externe faisant barrière aux virus.
@@ -670,9 +692,11 @@
           <t>Métaidoïoplastie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La métaidoïoplastie[6] est, avec la phalloplastie, l'une des opérations chirurgicales possibles pour obtenir un néo-pénis[2]. Celle-ci consiste à "libérer" le dicklit du capuchon afin de le faire gagner en taille externe.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La métaidoïoplastie est, avec la phalloplastie, l'une des opérations chirurgicales possibles pour obtenir un néo-pénis. Celle-ci consiste à "libérer" le dicklit du capuchon afin de le faire gagner en taille externe.
 </t>
         </is>
       </c>
